--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1883140F-E3B9-744B-863A-FF1A8A41AB00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB892B-A980-0145-914C-3F3B9DC6BEF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sno</t>
   </si>
@@ -42,14 +42,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>presumptive tense and perfective aspect. 
-Copula may double up as an auxiliary. 
-&lt;age&gt; का रहा is probably idiomatic.</t>
-  </si>
-  <si>
-    <t>Tense &amp; Aspect not annotated; unsure how to annotate idiom; how to annotate double functions for copula?</t>
-  </si>
-  <si>
     <t xml:space="preserve">::id lpp_1943.2 </t>
   </si>
   <si>
@@ -60,6 +52,69 @@
   </si>
   <si>
     <t>Meaning Types Available</t>
+  </si>
+  <si>
+    <t>एक किताब मिल गई - जंगल की सच्ची कहानियां</t>
+  </si>
+  <si>
+    <t>A book was got - True Stories of the Jungle</t>
+  </si>
+  <si>
+    <t>तब से मैं अजगर के अलावा कुछ भी बनाना नहीं सीख पाया</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.3</t>
+  </si>
+  <si>
+    <t>From then on, I didn't learn to make anything except for pythons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumptive mood; 
+present tense on first copula; 
+and perfect participle on secondary copula. </t>
+  </si>
+  <si>
+    <t>light verb not annotated; 
+followed the English sentence using except-01, except for is compound adpositional in English; 
+main predicate has multiple meaning in english and needs context to determine frame; using generic 'make' from English
+:mod used for particle following noun</t>
+  </si>
+  <si>
+    <t>इसी तरह अगर उनसे कहो, “नन्हा राजकुमार बहुत आकर्षक था, हंसता था, एक भेड़ चाहता था,” और यह उसके होने के लिए - उसके अस्तित्व को साबित करने के लिए काफी है - क्योंकि कोई होगा तभी तो भेड़ मांगेगा, तो ये लोग कंधा उचका कर तुम्हें बच्चा समझ लेंगे</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the same manner, if you were to say to them: "the Little Price was very charming, used to laugh, wanted a sheep", and to prove his existence, his being, this was enough , because if someone existed then he would ask for a sheep, then these people will shrug their shoulders and think of you as a child. </t>
+  </si>
+  <si>
+    <t>Mood, Tense,  Aspect not annotated in English; 
+unsure how to annotate two copulas;
+Mood with Morphology - like syntactic modals in english?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive auxiliary; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">light verb; past tense
+particle after noun, changes the meaning through composition
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subjunctive mood; future tense
+habitual aspect, past tense;
+presumptive mood; 
+light verb; future tense
+</t>
+  </si>
+  <si>
+    <t>light verb not annotated;
+Mood with Morphosyntax - like syntactic modals in english?</t>
+  </si>
+  <si>
+    <t>passive not annotated in English;
+implicit ARG0, but needs multi-sentence</t>
   </si>
 </sst>
 </file>
@@ -423,18 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -463,18 +518,64 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB892B-A980-0145-914C-3F3B9DC6BEF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213ED19-AB47-8346-9C28-AA84407CFC29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>::id lpp_1943.4</t>
   </si>
   <si>
-    <t xml:space="preserve">In the same manner, if you were to say to them: "the Little Price was very charming, used to laugh, wanted a sheep", and to prove his existence, his being, this was enough , because if someone existed then he would ask for a sheep, then these people will shrug their shoulders and think of you as a child. </t>
-  </si>
-  <si>
     <t>Mood, Tense,  Aspect not annotated in English; 
 unsure how to annotate two copulas;
 Mood with Morphology - like syntactic modals in english?</t>
@@ -109,12 +106,22 @@
 </t>
   </si>
   <si>
-    <t>light verb not annotated;
-Mood with Morphosyntax - like syntactic modals in english?</t>
-  </si>
-  <si>
     <t>passive not annotated in English;
 implicit ARG0, but needs multi-sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the same manner, if you were to say to them: "the Little Price was very charming, used to laugh, wanted a sheep", and to prove his existence, his being, this was enough; because if someone exists only then will he ask for a sheep, then these people will shrug their shoulders and think of you as a child. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">light verb not annotated;
+Mood with Morphosyntax - like syntactic modals in english?
+ARG0 (you) of root predicate  determined by verb morphology (like imperatives)
+presumptive morphology ignored
+emphatic particle ignored
+stem 'kar' suggesting time sequence of actions, but treated as 'and'
+samajh lena loosely translates to think but has more nuanced compound meaning indicating action of understanding towards someone
+case morphology may be lost in tumhe
+</t>
   </si>
 </sst>
 </file>
@@ -480,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -538,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -555,13 +562,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -569,13 +576,13 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213ED19-AB47-8346-9C28-AA84407CFC29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C774B81-8763-9A40-9AB3-E00B678D2FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Sno</t>
   </si>
@@ -122,6 +123,38 @@
 samajh lena loosely translates to think but has more nuanced compound meaning indicating action of understanding towards someone
 case morphology may be lost in tumhe
 </t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Gender, Number on predicates is lost with english concepts</t>
+  </si>
+  <si>
+    <t>Negative prefixes, see Koul (2009) 219-220 16,17</t>
+  </si>
+  <si>
+    <t>Mood is ignored</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.5</t>
+  </si>
+  <si>
+    <t>अब मुझे दूसरा पेशा चुनना पड़ा</t>
+  </si>
+  <si>
+    <t>Now I had to choose another profession</t>
+  </si>
+  <si>
+    <t>perfective;
+dative on subject</t>
+  </si>
+  <si>
+    <t>case lost;
+tense lost</t>
   </si>
 </sst>
 </file>
@@ -485,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +618,70 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E6858-BF09-8747-B25F-E868566D72A8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C774B81-8763-9A40-9AB3-E00B678D2FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92188864-839E-FA4D-85B5-31638BD57B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
+    <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Sno</t>
   </si>
@@ -46,28 +46,16 @@
     <t xml:space="preserve">::id lpp_1943.2 </t>
   </si>
   <si>
-    <t>I would have been some six years old</t>
-  </si>
-  <si>
-    <t>(ROUGH) Translation</t>
-  </si>
-  <si>
     <t>Meaning Types Available</t>
   </si>
   <si>
     <t>एक किताब मिल गई - जंगल की सच्ची कहानियां</t>
   </si>
   <si>
-    <t>A book was got - True Stories of the Jungle</t>
-  </si>
-  <si>
     <t>तब से मैं अजगर के अलावा कुछ भी बनाना नहीं सीख पाया</t>
   </si>
   <si>
     <t>::id lpp_1943.3</t>
-  </si>
-  <si>
-    <t>From then on, I didn't learn to make anything except for pythons</t>
   </si>
   <si>
     <t xml:space="preserve">presumptive mood; 
@@ -100,68 +88,126 @@
 </t>
   </si>
   <si>
+    <t>passive not annotated in English;
+implicit ARG0, but needs multi-sentence</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Gender, Number on predicates is lost with english concepts</t>
+  </si>
+  <si>
+    <t>Negative prefixes, see Koul (2009) 219-220 16,17</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.5</t>
+  </si>
+  <si>
+    <t>अब मुझे दूसरा पेशा चुनना पड़ा</t>
+  </si>
+  <si>
+    <t>perfective;
+dative on subject</t>
+  </si>
+  <si>
+    <t>मैंने अपना राज्य घूम कर देखा भी तो नहीं है</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light verb not annotated;
+Mood with Morphosyntax - like syntactic modals in english?
+ARG0 (you) subjunctive mood kaho  determined by verb morphology (like imperatives)
+presumptive morphology ignored
+emphatic particle ignored
+stem 'kar' is conjunctive, translation divergence
+samajh lena loosely translates to think but has more nuanced compound meaning indicating action of understanding towards someone
+case morphology may be lost in tumhe
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">subjunctive mood; future tense
 habitual aspect, past tense;
 presumptive mood; 
 light verb; future tense
+conjunctive 'kar'
 </t>
   </si>
   <si>
-    <t>passive not annotated in English;
-implicit ARG0, but needs multi-sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the same manner, if you were to say to them: "the Little Price was very charming, used to laugh, wanted a sheep", and to prove his existence, his being, this was enough; because if someone exists only then will he ask for a sheep, then these people will shrug their shoulders and think of you as a child. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">light verb not annotated;
-Mood with Morphosyntax - like syntactic modals in english?
-ARG0 (you) of root predicate  determined by verb morphology (like imperatives)
-presumptive morphology ignored
-emphatic particle ignored
-stem 'kar' suggesting time sequence of actions, but treated as 'and'
-samajh lena loosely translates to think but has more nuanced compound meaning indicating action of understanding towards someone
-case morphology may be lost in tumhe
+    <t xml:space="preserve">past tense;
+emphatic particle 'to'
+particle 'bhi' meaning even - emphatic?
+sequence of actions across time - conjunctive 'kar'
 </t>
   </si>
   <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Gender, Number on predicates is lost with english concepts</t>
-  </si>
-  <si>
-    <t>Negative prefixes, see Koul (2009) 219-220 16,17</t>
-  </si>
-  <si>
-    <t>Mood is ignored</t>
-  </si>
-  <si>
-    <t>::id lpp_1943.5</t>
-  </si>
-  <si>
-    <t>अब मुझे दूसरा पेशा चुनना पड़ा</t>
-  </si>
-  <si>
-    <t>Now I had to choose another profession</t>
-  </si>
-  <si>
-    <t>perfective;
-dative on subject</t>
+    <t>I have not yet made a complete tour of my kingdom .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t>Once when I was six years old I saw a magnificent picture in a book , called True Stories from Nature , about the primeval forest .</t>
+  </si>
+  <si>
+    <t>The grown - ups discouraged me in my painter 's career when I was six years old , and I never learned to draw anything , except boas from the outside and boas from the inside .</t>
+  </si>
+  <si>
+    <t>Just so , you might say to them : " The proof that the little prince existed is that he was charming , that he laughed , and that he was looking for a sheep . If anybody wants a sheep , that is a proof that he exists . " They would shrug their shoulders , and treat you like a child .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So then I chose another profession , and learned to pilot airplanes </t>
   </si>
   <si>
     <t>case lost;
-tense lost</t>
+tense lost
+multiple meanings on modal verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tense lost; 
+emphatic particles lost;
+translation divergence with 'kar'
+ergative case marker lost
+difficult to translate 'ghoom' - walk? Stroll? Roam? </t>
+  </si>
+  <si>
+    <t>Zero anaphora</t>
+  </si>
+  <si>
+    <t>Subjunctive, presumptive Mood is ignored</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.7</t>
+  </si>
+  <si>
+    <t>राजकुमार को अपने कर्तव्य के प्रति इतना ईमानदार बत्ती वाला बड़ा भला लगा</t>
+  </si>
+  <si>
+    <t>As the little prince watched him , he felt that he loved this lamplighter who was so faithful to his orders .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reflexive pronoun;
+'ke prati' in a :topic here vs :beneficiary
+conjunct verb (composition of adjective + verb): here literally 'looked pleasing/good to  the prince'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reflexivity is lost;
+preposition distinctions are lost in core relations;
+literally translated as 'lampman';
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +222,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,12 +250,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -557,14 +610,14 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -572,67 +625,101 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -642,20 +729,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E6858-BF09-8747-B25F-E868566D72A8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +766,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92188864-839E-FA4D-85B5-31638BD57B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FD0BD-C8DB-5A4F-955B-9BF8321B07AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Sno</t>
   </si>
@@ -200,6 +200,19 @@
     <t xml:space="preserve">reflexivity is lost;
 preposition distinctions are lost in core relations;
 literally translated as 'lampman';
+</t>
+  </si>
+  <si>
+    <t>जिस दिन वह रवाना होने वाला था उसने सब ठीक-ठाक किया</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.8</t>
+  </si>
+  <si>
+    <t>On the morning of his departure he put his planet in perfect order .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conjunct verb - ravana + hona
 </t>
   </si>
 </sst>
@@ -571,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,6 +733,20 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FD0BD-C8DB-5A4F-955B-9BF8321B07AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62085245-CB2F-1042-8F88-10CE8BAA0B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Sno</t>
   </si>
@@ -56,11 +56,6 @@
   </si>
   <si>
     <t>::id lpp_1943.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presumptive mood; 
-present tense on first copula; 
-and perfect participle on secondary copula. </t>
   </si>
   <si>
     <t>light verb not annotated; 
@@ -73,11 +68,6 @@
   </si>
   <si>
     <t>::id lpp_1943.4</t>
-  </si>
-  <si>
-    <t>Mood, Tense,  Aspect not annotated in English; 
-unsure how to annotate two copulas;
-Mood with Morphology - like syntactic modals in english?</t>
   </si>
   <si>
     <t xml:space="preserve">passive auxiliary; </t>
@@ -164,11 +154,6 @@
     <t xml:space="preserve">So then I chose another profession , and learned to pilot airplanes </t>
   </si>
   <si>
-    <t>case lost;
-tense lost
-multiple meanings on modal verb</t>
-  </si>
-  <si>
     <t xml:space="preserve">tense lost; 
 emphatic particles lost;
 translation divergence with 'kar'
@@ -215,12 +200,141 @@
     <t xml:space="preserve">conjunct verb - ravana + hona
 </t>
   </si>
+  <si>
+    <t>उसे कुकुरमुत्ता कहेंगे</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.9</t>
+  </si>
+  <si>
+    <t>But he is not a man - - he is a mushroom !</t>
+  </si>
+  <si>
+    <t>null subject</t>
+  </si>
+  <si>
+    <t>need to infer subject from verb morphology</t>
+  </si>
+  <si>
+    <t>मुझे यहां कुछ नहीं लेना-देना</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.10</t>
+  </si>
+  <si>
+    <t>I have nothing more to do here , " he said to the king .</t>
+  </si>
+  <si>
+    <t>idiomatic verb usage</t>
+  </si>
+  <si>
+    <t>presumptive mood; 
+present tense on first copula; 
+and perfect participle on verb; 
+idiomatic usage</t>
+  </si>
+  <si>
+    <t>Mood, Tense,  Aspect not annotated in English; 
+Mood with Morphology - like syntactic modals in english?</t>
+  </si>
+  <si>
+    <t>translated literally, avoided metaphoric usage</t>
+  </si>
+  <si>
+    <r>
+      <t>पहली बार</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arimo"/>
+      </rPr>
+      <t>बाईस साल हुए</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arimo"/>
+      </rPr>
+      <t>एक भौंरा न जाने कहां से गिर पड़ा था</t>
+    </r>
+  </si>
+  <si>
+    <t>::id lpp_1943.11</t>
+  </si>
+  <si>
+    <t>The first time was twenty - two years ago , when some giddy goose fell from goodness knows where .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light verb pada
+perfective lost; tense lost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The verb is not modal anymore, but a compound verb. </t>
+  </si>
+  <si>
+    <t>case lost;
+tense lost
+modaity through morphology the dative + infinitive construction</t>
+  </si>
+  <si>
+    <t>मुझे भेड़ बनाना नहीं आता था</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.12</t>
+  </si>
+  <si>
+    <t>But I had never drawn a sheep .</t>
+  </si>
+  <si>
+    <t>main verb is 'draw', needs context
+'aana' - complex verb with senses not captured in PropBank . 
+Past Tense &amp; habitual aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past tense; habitual aspect
+main verb does not have literal meaning
+case is lost
+</t>
+  </si>
+  <si>
+    <t>पर दुर्भाग्यवश यहां कोई आता ही नहीं</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.13</t>
+  </si>
+  <si>
+    <t>Unfortunately , nobody at all ever passes this way .</t>
+  </si>
+  <si>
+    <t>emphatic particle lost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +354,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -263,13 +388,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,22 +712,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="203" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -616,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="68">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -624,16 +752,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -641,16 +769,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="85">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -658,95 +786,177 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="170">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="85">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="85">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="34">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" t="s">
         <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -762,46 +972,46 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62085245-CB2F-1042-8F88-10CE8BAA0B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E90E2-D63C-E74C-927E-7A97B45E1261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Sno</t>
   </si>
@@ -312,22 +312,25 @@
 Past Tense &amp; habitual aspect</t>
   </si>
   <si>
+    <t>पर दुर्भाग्यवश यहां कोई आता ही नहीं</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.13</t>
+  </si>
+  <si>
+    <t>Unfortunately , nobody at all ever passes this way .</t>
+  </si>
+  <si>
+    <t>emphatic particle lost</t>
+  </si>
+  <si>
     <t xml:space="preserve">past tense; habitual aspect
-main verb does not have literal meaning
 case is lost
 </t>
   </si>
   <si>
-    <t>पर दुर्भाग्यवश यहां कोई आता ही नहीं</t>
-  </si>
-  <si>
-    <t>::id lpp_1943.13</t>
-  </si>
-  <si>
-    <t>Unfortunately , nobody at all ever passes this way .</t>
-  </si>
-  <si>
-    <t>emphatic particle lost</t>
+    <t>emphatic particle
+postposition as discourse marker?</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,7 +931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="85">
+    <row r="13" spans="1:5" ht="68">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -939,24 +942,27 @@
         <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17">
+    <row r="14" spans="1:5" ht="34">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E90E2-D63C-E74C-927E-7A97B45E1261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA04F9-EAC9-934F-B26F-2E29D8A33AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Sno</t>
   </si>
@@ -331,6 +331,63 @@
   <si>
     <t>emphatic particle
 postposition as discourse marker?</t>
+  </si>
+  <si>
+    <t>They are pursuing nothing at all , " said the switchman .</t>
+  </si>
+  <si>
+    <t>ये कुछ करते नहीं</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitual aspect 
+</t>
+  </si>
+  <si>
+    <t>scope of nahin over kuch - in english would change 'morphology', hindi does not</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuous tense lost;
+moods lost; aspect lost;
+anaphors got by verb morphology
+</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अंदर बैठे सो रहे होंगे या जम्हाई ले रहे होंगे, </t>
+  </si>
+  <si>
+    <t>बस बच्चे खिड़की से नाक रगड़ते कुछ देख रहे होंगे।”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are asleep in there , or if they are not asleep they are yawning . </t>
+  </si>
+  <si>
+    <t>Only the children are flattening their noses against the windowpanes . "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero anaphora (from previous sentence)
+moods; subjunctive, presumptive
+progressive tense; habitual aspect;
+conjunct verb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tense, aspect 
+presumptive mood
+</t>
+  </si>
+  <si>
+    <t>difficult to determine reposition relation;
+difficult to determine frame to use
+mood, tense, aspect lost</t>
   </si>
 </sst>
 </file>
@@ -715,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -963,6 +1020,57 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="102">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA04F9-EAC9-934F-B26F-2E29D8A33AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEA8FF-912B-FF44-9BEF-3454BA8DD5D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Sno</t>
   </si>
@@ -388,6 +388,44 @@
     <t>difficult to determine reposition relation;
 difficult to determine frame to use
 mood, tense, aspect lost</t>
+  </si>
+  <si>
+    <t>एक क्षण को तारे के नीचे इंतजार करिएगा</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And , if you should come upon this spot , please do not hurry on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">polite imperative in morphology
+conjunct verb
+</t>
+  </si>
+  <si>
+    <t>उसे उन सूर्यास्तों की याद आई जिन्हें वह कुर्सी खिसका-खिसका कर देखता रहता था</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.18</t>
+  </si>
+  <si>
+    <t>He remembered the sunsets which he himself had gone to seek , in other days , merely by pulling up his chair ; and he wanted to help his friend .</t>
+  </si>
+  <si>
+    <t>बाद में मैंने याद करके उसकी जो सबसे अच्छी तस्वीर बनाई वह यह रही</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.19</t>
+  </si>
+  <si>
+    <t>Here you may see the best portrait that , later , I was able to make of him .</t>
+  </si>
+  <si>
+    <t>मुझे अपनी आज्ञा का पालन कराने का अधिकार है क्योंकि मेरी आज्ञा न्याय संगत होती है</t>
+  </si>
+  <si>
+    <t>::id lpp_1943.20</t>
   </si>
 </sst>
 </file>
@@ -772,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1071,6 +1109,50 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/AMR_Hindi_issues.xlsx
+++ b/AMR_Hindi_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyachittamuru/Desktop/nanha_rajkumar/littlepricehindi-amr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEA8FF-912B-FF44-9BEF-3454BA8DD5D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881AFDE-4EE6-9743-A2F6-099CA45B4217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="600" windowWidth="28040" windowHeight="15940" xr2:uid="{1E018DA1-6FA9-0C4E-B494-B7335B57F2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Sno</t>
   </si>
@@ -426,6 +426,28 @@
   </si>
   <si>
     <t>::id lpp_1943.20</t>
+  </si>
+  <si>
+    <t>inchoative;
+habitualaspect; past tense
+conjunctive kar
+reduplication;
+progressive habitual
+case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kar translation divergence;
+lose tense, aspect; case
+reduplicative meaning lost
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case; gender
+conjunctive inflection
+</t>
+  </si>
+  <si>
+    <t>causative lost</t>
   </si>
 </sst>
 </file>
@@ -812,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28113AF-813B-1E4B-AB27-A0A0F9A3B96B}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1125,7 +1147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="102">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1135,8 +1157,14 @@
       <c r="C19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1145,6 +1173,12 @@
       </c>
       <c r="C20" t="s">
         <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
